--- a/defects.xlsx
+++ b/defects.xlsx
@@ -30,7 +30,7 @@
     <t>баги при эксплуатации</t>
   </si>
   <si>
-    <t xml:space="preserve">количество дефектов при разработке </t>
+    <t>баги при тестировании</t>
   </si>
 </sst>
 </file>
@@ -349,10 +349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,7 +362,7 @@
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -376,7 +376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>8</v>
       </c>
@@ -389,12 +389,8 @@
       <c r="D2">
         <v>300</v>
       </c>
-      <c r="E2">
-        <f>D2/C2</f>
-        <v>7.4962518740629688E-2</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
@@ -407,12 +403,8 @@
       <c r="D3">
         <v>300</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">D3/C3</f>
-        <v>0.3</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>5</v>
       </c>
@@ -425,12 +417,8 @@
       <c r="D4">
         <v>600</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>23</v>
       </c>
@@ -442,10 +430,6 @@
       </c>
       <c r="D5">
         <v>23</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>9.905254091300603E-3</v>
       </c>
     </row>
   </sheetData>
